--- a/ITMO/homeworks/sims/attemt2/data.xlsx
+++ b/ITMO/homeworks/sims/attemt2/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lysikova.dv\Documents\GitHub\Python_tasks_algorithm\ITMO\homeworks\sims\attemt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE6F9D6-7D81-4989-8F98-A35DFA26149C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AABE79-CFA9-4FFB-A18E-01A4945DE9A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5472" yWindow="4236" windowWidth="12540" windowHeight="8124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1428" yWindow="1428" windowWidth="12540" windowHeight="8124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,6 +730,7 @@
     <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="23.88671875" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="16.109375" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" customWidth="1"/>
@@ -789,9 +790,9 @@
       <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="O2">
-        <f>C3/L3</f>
-        <v>3.580606204712979</v>
+      <c r="O2" s="3">
+        <f>C3/I3</f>
+        <v>1.9538003489471836E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -819,9 +820,9 @@
       <c r="L3" s="3">
         <v>1598.14</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O66" si="0">C4/L4</f>
-        <v>80.789307622633075</v>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O66" si="0">C4/I4</f>
+        <v>9.6804964739649491E-3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -849,9 +850,9 @@
       <c r="L4" s="3">
         <v>46.590200000000003</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <f t="shared" si="0"/>
-        <v>185.57631555194513</v>
+        <v>8.6236078419761851E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -879,9 +880,9 @@
       <c r="L5" s="3">
         <v>18.834299999999999</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <f t="shared" si="0"/>
-        <v>301.09027982555523</v>
+        <v>9.4332095031557251E-3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -909,9 +910,9 @@
       <c r="L6" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <f t="shared" si="0"/>
-        <v>252.20201128589895</v>
+        <v>9.6457172345109799E-3</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -939,9 +940,9 @@
       <c r="L7" s="3">
         <v>15.8605</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <f t="shared" si="0"/>
-        <v>291.59094675707422</v>
+        <v>9.673877444664112E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -969,9 +970,9 @@
       <c r="L8" s="3">
         <v>13.8779</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <f t="shared" si="0"/>
-        <v>238.800650114891</v>
+        <v>1.0107553409020822E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -999,9 +1000,9 @@
       <c r="L9" s="3">
         <v>17.843</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <f t="shared" si="0"/>
-        <v>319.56373286980278</v>
+        <v>9.7256886714026606E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1029,9 +1030,9 @@
       <c r="L10" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <f t="shared" si="0"/>
-        <v>367.20316211333352</v>
+        <v>9.3759322613352434E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1059,9 +1060,9 @@
       <c r="L11" s="3">
         <v>10.9041</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <f t="shared" si="0"/>
-        <v>385.85119358773301</v>
+        <v>9.80402939792052E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1089,9 +1090,9 @@
       <c r="L12" s="3">
         <v>10.9041</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <f t="shared" si="0"/>
-        <v>354.78083965230257</v>
+        <v>9.7922863812073945E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1119,9 +1120,9 @@
       <c r="L13" s="3">
         <v>11.8954</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <f t="shared" si="0"/>
-        <v>359.70341227207382</v>
+        <v>9.9019703133895222E-3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1149,9 +1150,9 @@
       <c r="L14" s="3">
         <v>11.895300000000001</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <f t="shared" si="0"/>
-        <v>421.73638474777005</v>
+        <v>9.6487021064948914E-3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1179,9 +1180,9 @@
       <c r="L15" s="3">
         <v>9.9127799999999997</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <f t="shared" si="0"/>
-        <v>516.66345112310739</v>
+        <v>9.4103569369704577E-3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1209,9 +1210,9 @@
       <c r="L16" s="3">
         <v>7.9302299999999999</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="3">
         <f t="shared" si="0"/>
-        <v>322.56607638942779</v>
+        <v>9.5316254838295443E-3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1239,9 +1240,9 @@
       <c r="L17" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <f t="shared" si="0"/>
-        <v>232.54152400054591</v>
+        <v>8.9838101045855313E-3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1269,9 +1270,9 @@
       <c r="L18" s="3">
         <v>16.851700000000001</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <f t="shared" si="0"/>
-        <v>154.04177302911481</v>
+        <v>8.028446549564295E-3</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1299,9 +1300,9 @@
       <c r="L19" s="3">
         <v>22.799399999999999</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <f t="shared" si="0"/>
-        <v>196.22708688144223</v>
+        <v>7.5601575699656837E-3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1329,9 +1330,9 @@
       <c r="L20" s="3">
         <v>16.851700000000001</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <f t="shared" si="0"/>
-        <v>259.72947298512855</v>
+        <v>7.044590169915088E-3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1359,9 +1360,9 @@
       <c r="L21" s="3">
         <v>11.895300000000001</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <f t="shared" si="0"/>
-        <v>371.70926946633324</v>
+        <v>6.7318597146700338E-3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1389,9 +1390,9 @@
       <c r="L22" s="3">
         <v>7.9302299999999999</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <f t="shared" si="0"/>
-        <v>176.27657743729117</v>
+        <v>6.7530223739787126E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -1419,9 +1420,9 @@
       <c r="L23" s="3">
         <v>16.851700000000001</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="3">
         <f t="shared" si="0"/>
-        <v>229.43755528999117</v>
+        <v>6.735256865853881E-3</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -1449,9 +1450,9 @@
       <c r="L24" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="3">
         <f t="shared" si="0"/>
-        <v>253.96227107234895</v>
+        <v>6.3014668068393336E-3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1479,9 +1480,9 @@
       <c r="L25" s="3">
         <v>10.9041</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="3">
         <f t="shared" si="0"/>
-        <v>197.44438167487158</v>
+        <v>6.6585924565103994E-3</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1509,9 +1510,9 @@
       <c r="L26" s="3">
         <v>14.869199999999999</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="3">
         <f t="shared" si="0"/>
-        <v>230.12974717924047</v>
+        <v>6.7327701483185049E-3</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -1539,9 +1540,9 @@
       <c r="L27" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="3">
         <f t="shared" si="0"/>
-        <v>235.51673831732188</v>
+        <v>6.9050945096147728E-3</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -1569,9 +1570,9 @@
       <c r="L28" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="3">
         <f t="shared" si="0"/>
-        <v>251.80869755281498</v>
+        <v>6.8176003860212948E-3</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -1599,9 +1600,9 @@
       <c r="L29" s="3">
         <v>11.895300000000001</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="3">
         <f t="shared" si="0"/>
-        <v>229.5912032654075</v>
+        <v>6.7300321414679532E-3</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -1629,9 +1630,9 @@
       <c r="L30" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="3">
         <f t="shared" si="0"/>
-        <v>197.51096225755253</v>
+        <v>6.6667801696642806E-3</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -1659,9 +1660,9 @@
       <c r="L31" s="3">
         <v>14.869199999999999</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="3">
         <f t="shared" si="0"/>
-        <v>182.47785378771161</v>
+        <v>6.5684788183869025E-3</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -1689,9 +1690,9 @@
       <c r="L32" s="3">
         <v>15.8605</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="3">
         <f t="shared" si="0"/>
-        <v>222.3573324228268</v>
+        <v>6.500226849961435E-3</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1719,9 +1720,9 @@
       <c r="L33" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="3">
         <f t="shared" si="0"/>
-        <v>216.43179737091245</v>
+        <v>6.3174882894963353E-3</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -1749,9 +1750,9 @@
       <c r="L34" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="3">
         <f t="shared" si="0"/>
-        <v>193.96882813682186</v>
+        <v>6.1030537033720201E-3</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1779,9 +1780,9 @@
       <c r="L35" s="3">
         <v>13.8779</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="3">
         <f t="shared" si="0"/>
-        <v>228.40674608633452</v>
+        <v>5.6445303647027897E-3</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -1809,9 +1810,9 @@
       <c r="L36" s="3">
         <v>10.9041</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="3">
         <f t="shared" si="0"/>
-        <v>117.16441929393906</v>
+        <v>5.5230853191002736E-3</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -1839,9 +1840,9 @@
       <c r="L37" s="3">
         <v>20.8169</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="3">
         <f t="shared" si="0"/>
-        <v>136.41032046077945</v>
+        <v>6.4769707655427085E-3</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1869,9 +1870,9 @@
       <c r="L38" s="3">
         <v>20.8169</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="3">
         <f t="shared" si="0"/>
-        <v>310.67312299815893</v>
+        <v>8.6846632168187145E-3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -1899,9 +1900,9 @@
       <c r="L39" s="3">
         <v>11.895300000000001</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="3">
         <f t="shared" si="0"/>
-        <v>358.2881668363276</v>
+        <v>9.832163080407701E-3</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -1929,9 +1930,9 @@
       <c r="L40" s="3">
         <v>10.9041</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="3">
         <f t="shared" si="0"/>
-        <v>429.73785123508401</v>
+        <v>9.3878990226218418E-3</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -1959,9 +1960,9 @@
       <c r="L41" s="3">
         <v>7.9302299999999999</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="3">
         <f t="shared" si="0"/>
-        <v>198.65519221516922</v>
+        <v>7.762038028070792E-3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -1989,9 +1990,9 @@
       <c r="L42" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="3">
         <f t="shared" si="0"/>
-        <v>321.04011185560461</v>
+        <v>5.2027714109149645E-3</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -2019,9 +2020,9 @@
       <c r="L43" s="3">
         <v>4.9563899999999999</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="3">
         <f t="shared" si="0"/>
-        <v>194.8510929490036</v>
+        <v>4.0173950421703245E-3</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -2049,9 +2050,9 @@
       <c r="L44" s="3">
         <v>5.9476699999999996</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="3">
         <f t="shared" si="0"/>
-        <v>109.13226980806357</v>
+        <v>3.1251927417170712E-3</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -2079,9 +2080,9 @@
       <c r="L45" s="3">
         <v>7.9302299999999999</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="3">
         <f t="shared" si="0"/>
-        <v>88.504747024991715</v>
+        <v>2.6233161899920764E-3</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -2109,9 +2110,9 @@
       <c r="L46" s="3">
         <v>7.9302299999999999</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="3">
         <f t="shared" si="0"/>
-        <v>57.457103291422499</v>
+        <v>2.4023758488598149E-3</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -2139,9 +2140,9 @@
       <c r="L47" s="3">
         <v>10.9041</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="3">
         <f t="shared" si="0"/>
-        <v>185.34146202035757</v>
+        <v>2.1555747623163354E-3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -2169,9 +2170,9 @@
       <c r="L48" s="3">
         <v>2.97383</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="3">
         <f t="shared" si="0"/>
-        <v>90.670464232211955</v>
+        <v>2.147029549236784E-3</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -2199,9 +2200,9 @@
       <c r="L49" s="3">
         <v>5.9476699999999996</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="3">
         <f t="shared" si="0"/>
-        <v>37.734847873456545</v>
+        <v>2.2764643591793015E-3</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -2229,9 +2230,9 @@
       <c r="L50" s="3">
         <v>14.869199999999999</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="3">
         <f t="shared" si="0"/>
-        <v>56.557753740962838</v>
+        <v>2.0651915882877792E-3</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -2259,9 +2260,9 @@
       <c r="L51" s="3">
         <v>8.9215</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="3">
         <f t="shared" si="0"/>
-        <v>0.76135337828737149</v>
+        <v>2.0923621557338962E-3</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -2289,9 +2290,9 @@
       <c r="L52" s="3">
         <v>697.89800000000002</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="3">
         <f t="shared" si="0"/>
-        <v>3.7892653314561667E-2</v>
+        <v>1.7765156354242076E-3</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -2319,9 +2320,9 @@
       <c r="L53" s="3">
         <v>13211.4</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="3">
         <f t="shared" si="0"/>
-        <v>9.4943527635928688E-3</v>
+        <v>1.3725120509409463E-3</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -2349,9 +2350,9 @@
       <c r="L54" s="3">
         <v>45314.2</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="3">
         <f t="shared" si="0"/>
-        <v>4.0065101585332313E-3</v>
+        <v>9.1970616472743596E-4</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2379,9 +2380,9 @@
       <c r="L55" s="3">
         <v>78185.5</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="3">
         <f t="shared" si="0"/>
-        <v>1.8753312127881333E-3</v>
+        <v>4.3358299985601391E-4</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -2409,9 +2410,9 @@
       <c r="L56" s="3">
         <v>85103.9</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="3">
         <f t="shared" si="0"/>
-        <v>1.7242293273873912E-3</v>
+        <v>2.615615034540643E-4</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -2439,9 +2440,9 @@
       <c r="L57" s="3">
         <v>60366.1</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="3">
         <f t="shared" si="0"/>
-        <v>1.3830669710806697E-3</v>
+        <v>1.0417747459837487E-4</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -2469,9 +2470,9 @@
       <c r="L58" s="3">
         <v>31536</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="3">
         <f t="shared" si="0"/>
-        <v>1.8965951578057863E-3</v>
+        <v>5.5337375936509267E-5</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -2499,9 +2500,9 @@
       <c r="L59" s="3">
         <v>12543.9</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="3">
         <f t="shared" si="0"/>
-        <v>2.1021961276171605E-3</v>
+        <v>1.5888529905410016E-5</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -2529,9 +2530,9 @@
       <c r="L60" s="3">
         <v>3300.81</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="3">
         <f t="shared" si="0"/>
-        <v>2.8487690391799979E-3</v>
+        <v>6.7849344853627314E-6</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -2559,9 +2560,9 @@
       <c r="L61" s="3">
         <v>1043.9000000000001</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="3">
         <f t="shared" si="0"/>
-        <v>4.0250640203132529E-4</v>
+        <v>6.7764619559892172E-6</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -2589,9 +2590,9 @@
       <c r="L62" s="3">
         <v>7388.28</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="3">
         <f t="shared" si="0"/>
-        <v>5.9107320141793658E-5</v>
+        <v>4.5362211732726848E-6</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -2619,9 +2620,9 @@
       <c r="L63" s="3">
         <v>33541.699999999997</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="3">
         <f t="shared" si="0"/>
-        <v>4.1467244134453689E-5</v>
+        <v>6.8748020556163039E-6</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -2649,9 +2650,9 @@
       <c r="L64" s="3">
         <v>71715.399999999994</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="3">
         <f t="shared" si="0"/>
-        <v>3.1638239562188545E-5</v>
+        <v>6.9258053397425148E-6</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -2679,9 +2680,9 @@
       <c r="L65" s="3">
         <v>93994.8</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="3">
         <f t="shared" si="0"/>
-        <v>1.0936852151175299E-5</v>
+        <v>2.2999169385112966E-6</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -2709,9 +2710,9 @@
       <c r="L66" s="3">
         <v>90636.5</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="3">
         <f t="shared" si="0"/>
-        <v>1.7081487378580549E-5</v>
+        <v>2.2702929253601446E-6</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -2739,9 +2740,9 @@
       <c r="L67" s="3">
         <v>58032.3</v>
       </c>
-      <c r="O67">
-        <f t="shared" ref="O67:O130" si="1">C68/L68</f>
-        <v>3.6814107165865958E-8</v>
+      <c r="O67" s="3">
+        <f t="shared" ref="O67:O130" si="1">C68/I68</f>
+        <v>2.2747590461480368E-9</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -2769,9 +2770,9 @@
       <c r="L68" s="3">
         <v>27163.5</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="3">
         <f t="shared" si="1"/>
-        <v>4.7039109591560013E-4</v>
+        <v>8.9497383995196853E-6</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -2799,9 +2800,9 @@
       <c r="L69" s="3">
         <v>8429.39</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="3">
         <f t="shared" si="1"/>
-        <v>5.6507710477094594E-7</v>
+        <v>2.257524894855778E-9</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -2829,9 +2830,9 @@
       <c r="L70" s="3">
         <v>1769.67</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="3">
         <f t="shared" si="1"/>
-        <v>9.1356572120214182E-4</v>
+        <v>6.6963372949213911E-6</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -2859,9 +2860,9 @@
       <c r="L71" s="3">
         <v>3255.19</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="3">
         <f t="shared" si="1"/>
-        <v>4.8243455775224088E-8</v>
+        <v>2.2587231889557471E-9</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -2889,9 +2890,9 @@
       <c r="L72" s="3">
         <v>20728.2</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="3">
         <f t="shared" si="1"/>
-        <v>1.7731092436974792E-5</v>
+        <v>2.2548211434264579E-6</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -2919,9 +2920,9 @@
       <c r="L73" s="3">
         <v>55906.2</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="3">
         <f t="shared" si="1"/>
-        <v>1.120511017717421E-5</v>
+        <v>2.2767064768029397E-6</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -2949,9 +2950,9 @@
       <c r="L74" s="3">
         <v>88466.6</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="3">
         <f t="shared" si="1"/>
-        <v>1.0099847088315083E-8</v>
+        <v>2.3014959723820486E-9</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -2979,9 +2980,9 @@
       <c r="L75" s="3">
         <v>99011.4</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="3">
         <f t="shared" si="1"/>
-        <v>1.362489674235E-5</v>
+        <v>2.2699965879451413E-6</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -3009,9 +3010,9 @@
       <c r="L76" s="3">
         <v>72754.899999999994</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="3">
         <f t="shared" si="1"/>
-        <v>2.6320568734849223E-8</v>
+        <v>2.2764471943926554E-9</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -3039,9 +3040,9 @@
       <c r="L77" s="3">
         <v>37993.1</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="3">
         <f t="shared" si="1"/>
-        <v>7.0894834602350878E-8</v>
+        <v>2.263262719536484E-9</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -3069,9 +3070,9 @@
       <c r="L78" s="3">
         <v>14105.4</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="3">
         <f t="shared" si="1"/>
-        <v>3.0441956321881071E-7</v>
+        <v>2.2559257529716182E-9</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -3099,9 +3100,9 @@
       <c r="L79" s="3">
         <v>3284.94</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="3">
         <f t="shared" si="1"/>
-        <v>5.2320952597104424E-4</v>
+        <v>2.2354578133386253E-6</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -3129,9 +3130,9 @@
       <c r="L80" s="3">
         <v>1894.61</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="3">
         <f t="shared" si="1"/>
-        <v>6.90314628337442E-5</v>
+        <v>2.2378196069224275E-6</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -3159,9 +3160,9 @@
       <c r="L81" s="3">
         <v>14359.8</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="3">
         <f t="shared" si="1"/>
-        <v>2.2726143095574343E-5</v>
+        <v>2.2527355902852741E-6</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -3189,9 +3190,9 @@
       <c r="L82" s="3">
         <v>43618.400000000001</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="3">
         <f t="shared" si="1"/>
-        <v>1.251803303530838E-5</v>
+        <v>2.2704541238069715E-6</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -3219,9 +3220,9 @@
       <c r="L83" s="3">
         <v>79188</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="3">
         <f t="shared" si="1"/>
-        <v>9.9737394957983189E-6</v>
+        <v>2.285404029575117E-6</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -3249,9 +3250,9 @@
       <c r="L84" s="3">
         <v>99388.800000000003</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="3">
         <f t="shared" si="1"/>
-        <v>1.1863015388703562E-8</v>
+        <v>2.2909454961157018E-9</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -3279,9 +3280,9 @@
       <c r="L85" s="3">
         <v>84295.6</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="3">
         <f t="shared" si="1"/>
-        <v>2.035808683544148E-5</v>
+        <v>2.2461762266664855E-6</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -3309,9 +3310,9 @@
       <c r="L86" s="3">
         <v>48692.1</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="3">
         <f t="shared" si="1"/>
-        <v>9.7359943427359158E-5</v>
+        <v>4.4840298730260692E-6</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -3339,9 +3340,9 @@
       <c r="L87" s="3">
         <v>20363.2</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="3">
         <f t="shared" si="1"/>
-        <v>1.8649029995635358E-4</v>
+        <v>2.2386888711229149E-6</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -3369,9 +3370,9 @@
       <c r="L88" s="3">
         <v>5315.44</v>
       </c>
-      <c r="O88">
+      <c r="O88" s="3">
         <f t="shared" si="1"/>
-        <v>6.9853865712928561E-7</v>
+        <v>2.2637135768485486E-9</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -3399,9 +3400,9 @@
       <c r="L89" s="3">
         <v>1431.56</v>
       </c>
-      <c r="O89">
+      <c r="O89" s="3">
         <f t="shared" si="1"/>
-        <v>1.2423486850360344E-7</v>
+        <v>2.2641646138240835E-9</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -3429,9 +3430,9 @@
       <c r="L90" s="3">
         <v>8049.27</v>
       </c>
-      <c r="O90">
+      <c r="O90" s="3">
         <f t="shared" si="1"/>
-        <v>3.1178873195522713E-8</v>
+        <v>2.2805277141130457E-9</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -3459,9 +3460,9 @@
       <c r="L91" s="3">
         <v>32073</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="3">
         <f t="shared" si="1"/>
-        <v>1.460711249521617E-8</v>
+        <v>2.3067891110326804E-9</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -3489,9 +3490,9 @@
       <c r="L92" s="3">
         <v>68459.8</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="3">
         <f t="shared" si="1"/>
-        <v>1.0432021298014683E-8</v>
+        <v>2.3287766936028503E-9</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -3519,9 +3520,9 @@
       <c r="L93" s="3">
         <v>95858.7</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="3">
         <f t="shared" si="1"/>
-        <v>1.0293625672302427E-8</v>
+        <v>2.3267393540040856E-9</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -3549,9 +3550,9 @@
       <c r="L94" s="3">
         <v>97147.5</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="3">
         <f t="shared" si="1"/>
-        <v>1.5729255471421514E-8</v>
+        <v>2.3020045855931346E-9</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -3579,9 +3580,9 @@
       <c r="L95" s="3">
         <v>63575.8</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="3">
         <f t="shared" si="1"/>
-        <v>3.1817241763311536E-8</v>
+        <v>2.2829278092568159E-9</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -3609,9 +3610,9 @@
       <c r="L96" s="3">
         <v>31429.5</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="3">
         <f t="shared" si="1"/>
-        <v>9.7780386277101548E-5</v>
+        <v>2.2587413384131267E-6</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
@@ -3639,9 +3640,9 @@
       <c r="L97" s="3">
         <v>10137.799999999999</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="3">
         <f t="shared" si="1"/>
-        <v>5.0356524191274221E-7</v>
+        <v>2.2762502873765989E-9</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -3669,9 +3670,9 @@
       <c r="L98" s="3">
         <v>1985.84</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="3">
         <f t="shared" si="1"/>
-        <v>1.1346796685827623E-6</v>
+        <v>2.2756442348828954E-9</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -3699,9 +3700,9 @@
       <c r="L99" s="3">
         <v>881.30600000000004</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="3">
         <f t="shared" si="1"/>
-        <v>6.42471201228405E-7</v>
+        <v>2.2779769742087446E-9</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -3729,9 +3730,9 @@
       <c r="L100" s="3">
         <v>1556.49</v>
       </c>
-      <c r="O100">
+      <c r="O100" s="3">
         <f t="shared" si="1"/>
-        <v>1.7487898374324968E-7</v>
+        <v>2.278823124585539E-9</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -3759,9 +3760,9 @@
       <c r="L101" s="3">
         <v>5718.24</v>
       </c>
-      <c r="O101">
+      <c r="O101" s="3">
         <f t="shared" si="1"/>
-        <v>6.759085901222719E-8</v>
+        <v>2.2827975227081283E-9</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -3789,9 +3790,9 @@
       <c r="L102" s="3">
         <v>14794.9</v>
       </c>
-      <c r="O102">
+      <c r="O102" s="3">
         <f t="shared" si="1"/>
-        <v>3.6790988550114127E-5</v>
+        <v>2.2695496287545247E-6</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -3819,9 +3820,9 @@
       <c r="L103" s="3">
         <v>26943.5</v>
       </c>
-      <c r="O103">
+      <c r="O103" s="3">
         <f t="shared" si="1"/>
-        <v>2.5583299222267703E-8</v>
+        <v>2.293830513451022E-9</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -3849,9 +3850,9 @@
       <c r="L104" s="3">
         <v>39088</v>
       </c>
-      <c r="O104">
+      <c r="O104" s="3">
         <f t="shared" si="1"/>
-        <v>2.1453633325830635E-5</v>
+        <v>2.2723434104475561E-6</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -3879,9 +3880,9 @@
       <c r="L105" s="3">
         <v>46205.599999999999</v>
       </c>
-      <c r="O105">
+      <c r="O105" s="3">
         <f t="shared" si="1"/>
-        <v>6.1122004357298473E-5</v>
+        <v>6.8325896857380488E-6</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -3909,9 +3910,9 @@
       <c r="L106" s="3">
         <v>48654</v>
       </c>
-      <c r="O106">
+      <c r="O106" s="3">
         <f t="shared" si="1"/>
-        <v>4.0594785186883927E-5</v>
+        <v>4.5412606570369662E-6</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -3939,9 +3940,9 @@
       <c r="L107" s="3">
         <v>48837.8</v>
       </c>
-      <c r="O107">
+      <c r="O107" s="3">
         <f t="shared" si="1"/>
-        <v>6.1125978911019297E-5</v>
+        <v>6.7972864248098304E-6</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -3969,9 +3970,9 @@
       <c r="L108" s="3">
         <v>48651</v>
       </c>
-      <c r="O108">
+      <c r="O108" s="3">
         <f t="shared" si="1"/>
-        <v>2.0615676414252648E-5</v>
+        <v>2.2637447961031575E-6</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -3999,9 +4000,9 @@
       <c r="L109" s="3">
         <v>48083.7</v>
       </c>
-      <c r="O109">
+      <c r="O109" s="3">
         <f t="shared" si="1"/>
-        <v>2.2039587507080216E-8</v>
+        <v>2.276685601101916E-9</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -4029,9 +4030,9 @@
       <c r="L110" s="3">
         <v>45372.9</v>
       </c>
-      <c r="O110">
+      <c r="O110" s="3">
         <f t="shared" si="1"/>
-        <v>2.5697154144869528E-5</v>
+        <v>2.2557549994993674E-6</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -4059,9 +4060,9 @@
       <c r="L111" s="3">
         <v>38575.4</v>
       </c>
-      <c r="O111">
+      <c r="O111" s="3">
         <f t="shared" si="1"/>
-        <v>7.0945070674539279E-5</v>
+        <v>4.5015826018246468E-6</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -4089,9 +4090,9 @@
       <c r="L112" s="3">
         <v>27945</v>
       </c>
-      <c r="O112">
+      <c r="O112" s="3">
         <f t="shared" si="1"/>
-        <v>1.9164609822585116E-4</v>
+        <v>6.7243036194378303E-6</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
@@ -4119,9 +4120,9 @@
       <c r="L113" s="3">
         <v>15517.3</v>
       </c>
-      <c r="O113">
+      <c r="O113" s="3">
         <f t="shared" si="1"/>
-        <v>6.0972800580647946E-4</v>
+        <v>8.9642660131487332E-6</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
@@ -4149,9 +4150,9 @@
       <c r="L114" s="3">
         <v>6503.08</v>
       </c>
-      <c r="O114">
+      <c r="O114" s="3">
         <f t="shared" si="1"/>
-        <v>4.7532131721043423E-7</v>
+        <v>2.2594478813157219E-9</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
@@ -4179,9 +4180,9 @@
       <c r="L115" s="3">
         <v>2103.84</v>
       </c>
-      <c r="O115">
+      <c r="O115" s="3">
         <f t="shared" si="1"/>
-        <v>2.1600931432163357E-6</v>
+        <v>2.2651031414715468E-9</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
@@ -4209,9 +4210,9 @@
       <c r="L116" s="3">
         <v>462.94299999999998</v>
       </c>
-      <c r="O116">
+      <c r="O116" s="3">
         <f t="shared" si="1"/>
-        <v>4.9260455593543766E-3</v>
+        <v>2.2409663067657751E-6</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
@@ -4239,9 +4240,9 @@
       <c r="L117" s="3">
         <v>201.232</v>
       </c>
-      <c r="O117">
+      <c r="O117" s="3">
         <f t="shared" si="1"/>
-        <v>9.900898921294447E-3</v>
+        <v>2.2457436854756309E-6</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -4269,9 +4270,9 @@
       <c r="L118" s="3">
         <v>100.12</v>
       </c>
-      <c r="O118">
+      <c r="O118" s="3">
         <f t="shared" si="1"/>
-        <v>2.3809452896444715E-2</v>
+        <v>2.2547954989525304E-6</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
@@ -4299,9 +4300,9 @@
       <c r="L119" s="3">
         <v>41.633800000000001</v>
       </c>
-      <c r="O119">
+      <c r="O119" s="3">
         <f t="shared" si="1"/>
-        <v>4.0351868291501898E-5</v>
+        <v>2.2759860709652459E-9</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -4329,9 +4330,9 @@
       <c r="L120" s="3">
         <v>24.782</v>
       </c>
-      <c r="O120">
+      <c r="O120" s="3">
         <f t="shared" si="1"/>
-        <v>3.2541808087940983E-5</v>
+        <v>2.2805173125471783E-9</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
@@ -4359,9 +4360,9 @@
       <c r="L121" s="3">
         <v>30.729700000000001</v>
       </c>
-      <c r="O121">
+      <c r="O121" s="3">
         <f t="shared" si="1"/>
-        <v>3.3626556909584915E-5</v>
+        <v>2.27879715970722E-9</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -4389,9 +4390,9 @@
       <c r="L122" s="3">
         <v>29.738399999999999</v>
       </c>
-      <c r="O122">
+      <c r="O122" s="3">
         <f t="shared" si="1"/>
-        <v>4.7618905792889431E-2</v>
+        <v>2.2598638990527648E-6</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
@@ -4419,9 +4420,9 @@
       <c r="L123" s="3">
         <v>20.8169</v>
       </c>
-      <c r="O123">
+      <c r="O123" s="3">
         <f t="shared" si="1"/>
-        <v>4.2033231472802394E-5</v>
+        <v>2.2772610925387816E-9</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
@@ -4449,9 +4450,9 @@
       <c r="L124" s="3">
         <v>23.790700000000001</v>
       </c>
-      <c r="O124">
+      <c r="O124" s="3">
         <f t="shared" si="1"/>
-        <v>5.6044387154626467E-5</v>
+        <v>2.2787452317256028E-9</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -4479,9 +4480,9 @@
       <c r="L125" s="3">
         <v>17.843</v>
       </c>
-      <c r="O125">
+      <c r="O125" s="3">
         <f t="shared" si="1"/>
-        <v>3.8799843248633279E-5</v>
+        <v>2.2801429193581853E-9</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -4509,9 +4510,9 @@
       <c r="L126" s="3">
         <v>25.773299999999999</v>
       </c>
-      <c r="O126">
+      <c r="O126" s="3">
         <f t="shared" si="1"/>
-        <v>5.8823620168885031E-2</v>
+        <v>2.2646964078874321E-6</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -4539,9 +4540,9 @@
       <c r="L127" s="3">
         <v>16.851700000000001</v>
       </c>
-      <c r="O127">
+      <c r="O127" s="3">
         <f t="shared" si="1"/>
-        <v>5.3094619922163289E-5</v>
+        <v>2.271823706480377E-9</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -4569,9 +4570,9 @@
       <c r="L128" s="3">
         <v>18.834299999999999</v>
       </c>
-      <c r="O128">
+      <c r="O128" s="3">
         <f t="shared" si="1"/>
-        <v>5.2631528647202185E-2</v>
+        <v>2.2518093472720084E-6</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -4599,9 +4600,9 @@
       <c r="L129" s="3">
         <v>18.834299999999999</v>
       </c>
-      <c r="O129">
+      <c r="O129" s="3">
         <f t="shared" si="1"/>
-        <v>6.3049714700040983E-5</v>
+        <v>2.2606073347665584E-9</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
@@ -4629,9 +4630,9 @@
       <c r="L130" s="3">
         <v>15.8605</v>
       </c>
-      <c r="O130">
+      <c r="O130" s="3">
         <f t="shared" si="1"/>
-        <v>1.0087977249593707E-4</v>
+        <v>2.2592232790366672E-9</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -4659,9 +4660,9 @@
       <c r="L131" s="3">
         <v>9.9127899999999993</v>
       </c>
-      <c r="O131">
-        <f t="shared" ref="O131:O178" si="2">C132/L132</f>
-        <v>1.0087987426332472E-4</v>
+      <c r="O131" s="3">
+        <f t="shared" ref="O131:O178" si="2">C132/I132</f>
+        <v>2.2714624811184684E-9</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
@@ -4689,9 +4690,9 @@
       <c r="L132" s="3">
         <v>9.9127799999999997</v>
       </c>
-      <c r="O132">
+      <c r="O132" s="3">
         <f t="shared" si="2"/>
-        <v>6.3049714700040983E-5</v>
+        <v>2.2824275899847077E-9</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -4719,9 +4720,9 @@
       <c r="L133" s="3">
         <v>15.8605</v>
       </c>
-      <c r="O133">
+      <c r="O133" s="3">
         <f t="shared" si="2"/>
-        <v>1.4411402301500948E-4</v>
+        <v>2.2847220635609679E-9</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -4749,9 +4750,9 @@
       <c r="L134" s="3">
         <v>6.9389500000000002</v>
       </c>
-      <c r="O134">
+      <c r="O134" s="3">
         <f t="shared" si="2"/>
-        <v>0.19999999999999998</v>
+        <v>4.5283984230458241E-6</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -4779,9 +4780,9 @@
       <c r="L135" s="3">
         <v>9.9128000000000007</v>
       </c>
-      <c r="O135">
+      <c r="O135" s="3">
         <f t="shared" si="2"/>
-        <v>3.8461431015818698E-2</v>
+        <v>2.2511650088567923E-6</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
@@ -4809,9 +4810,9 @@
       <c r="L136" s="3">
         <v>25.773299999999999</v>
       </c>
-      <c r="O136">
+      <c r="O136" s="3">
         <f t="shared" si="2"/>
-        <v>7.2057011507504739E-5</v>
+        <v>2.2588762542410402E-9</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -4839,9 +4840,9 @@
       <c r="L137" s="3">
         <v>13.8779</v>
       </c>
-      <c r="O137">
+      <c r="O137" s="3">
         <f t="shared" si="2"/>
-        <v>8.3333585533782242E-2</v>
+        <v>2.2524335820692037E-6</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
@@ -4869,9 +4870,9 @@
       <c r="L138" s="3">
         <v>11.895300000000001</v>
       </c>
-      <c r="O138">
+      <c r="O138" s="3">
         <f t="shared" si="2"/>
-        <v>0.11764747770254633</v>
+        <v>4.5187273643112255E-6</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
@@ -4899,9 +4900,9 @@
       <c r="L139" s="3">
         <v>16.851700000000001</v>
       </c>
-      <c r="O139">
+      <c r="O139" s="3">
         <f t="shared" si="2"/>
-        <v>0.11111136019727624</v>
+        <v>4.5282122496711008E-6</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -4929,9 +4930,9 @@
       <c r="L140" s="3">
         <v>17.843</v>
       </c>
-      <c r="O140">
+      <c r="O140" s="3">
         <f t="shared" si="2"/>
-        <v>6.7253113819169829E-5</v>
+        <v>2.2796335261143419E-9</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -4959,9 +4960,9 @@
       <c r="L141" s="3">
         <v>14.869199999999999</v>
       </c>
-      <c r="O141">
+      <c r="O141" s="3">
         <f t="shared" si="2"/>
-        <v>7.2057011507504739E-5</v>
+        <v>2.2831519369119456E-9</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
@@ -4989,9 +4990,9 @@
       <c r="L142" s="3">
         <v>13.8779</v>
       </c>
-      <c r="O142">
+      <c r="O142" s="3">
         <f t="shared" si="2"/>
-        <v>5.9341194063506943E-5</v>
+        <v>2.2655495996773857E-9</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
@@ -5019,9 +5020,9 @@
       <c r="L143" s="3">
         <v>16.851700000000001</v>
       </c>
-      <c r="O143">
+      <c r="O143" s="3">
         <f t="shared" si="2"/>
-        <v>0.18181784833227871</v>
+        <v>4.488435694492239E-6</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -5049,9 +5050,9 @@
       <c r="L144" s="3">
         <v>10.9041</v>
       </c>
-      <c r="O144">
+      <c r="O144" s="3">
         <f t="shared" si="2"/>
-        <v>6.7253113819169829E-5</v>
+        <v>2.2687981268802664E-9</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -5079,9 +5080,9 @@
       <c r="L145" s="3">
         <v>14.869199999999999</v>
       </c>
-      <c r="O145">
+      <c r="O145" s="3">
         <f t="shared" si="2"/>
-        <v>5.2631528647202185E-2</v>
+        <v>2.2616478705176145E-6</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
@@ -5109,9 +5110,9 @@
       <c r="L146" s="3">
         <v>18.834299999999999</v>
       </c>
-      <c r="O146">
+      <c r="O146" s="3">
         <f t="shared" si="2"/>
-        <v>8.4066816305599685E-5</v>
+        <v>2.2900536101550138E-9</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -5139,9 +5140,9 @@
       <c r="L147" s="3">
         <v>11.895300000000001</v>
       </c>
-      <c r="O147">
+      <c r="O147" s="3">
         <f t="shared" si="2"/>
-        <v>1.120886486704605E-4</v>
+        <v>2.2873402578747406E-9</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
@@ -5169,9 +5170,9 @@
       <c r="L148" s="3">
         <v>8.9215099999999996</v>
       </c>
-      <c r="O148">
+      <c r="O148" s="3">
         <f t="shared" si="2"/>
-        <v>7.2057011507504739E-5</v>
+        <v>2.2836107539797628E-9</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -5199,9 +5200,9 @@
       <c r="L149" s="3">
         <v>13.8779</v>
       </c>
-      <c r="O149">
+      <c r="O149" s="3">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>2.2541853325753269E-6</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -5229,9 +5230,9 @@
       <c r="L150" s="3">
         <v>9.9127799999999997</v>
       </c>
-      <c r="O150">
+      <c r="O150" s="3">
         <f t="shared" si="2"/>
-        <v>7.2057011507504739E-5</v>
+        <v>2.2719579051639333E-9</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -5259,9 +5260,9 @@
       <c r="L151" s="3">
         <v>13.8779</v>
       </c>
-      <c r="O151">
+      <c r="O151" s="3">
         <f t="shared" si="2"/>
-        <v>1.0087987426332472E-4</v>
+        <v>2.2661862351848073E-9</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -5289,9 +5290,9 @@
       <c r="L152" s="3">
         <v>9.9127799999999997</v>
       </c>
-      <c r="O152">
+      <c r="O152" s="3">
         <f t="shared" si="2"/>
-        <v>0.16666750733482971</v>
+        <v>4.5026049591882156E-6</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
@@ -5319,9 +5320,9 @@
       <c r="L153" s="3">
         <v>11.895300000000001</v>
       </c>
-      <c r="O153">
+      <c r="O153" s="3">
         <f t="shared" si="2"/>
-        <v>7.2057011507504739E-5</v>
+        <v>2.2839393385711677E-9</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -5349,9 +5350,9 @@
       <c r="L154" s="3">
         <v>13.8779</v>
       </c>
-      <c r="O154">
+      <c r="O154" s="3">
         <f t="shared" si="2"/>
-        <v>7.759998758400199E-5</v>
+        <v>2.2923266657191715E-9</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
@@ -5379,9 +5380,9 @@
       <c r="L155" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O155">
+      <c r="O155" s="3">
         <f t="shared" si="2"/>
-        <v>6.3049714700040983E-5</v>
+        <v>2.2857613070897458E-9</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -5409,9 +5410,9 @@
       <c r="L156" s="3">
         <v>15.8605</v>
       </c>
-      <c r="O156">
+      <c r="O156" s="3">
         <f t="shared" si="2"/>
-        <v>5.0439835364377365E-5</v>
+        <v>2.2854217517300643E-9</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -5439,9 +5440,9 @@
       <c r="L157" s="3">
         <v>19.825600000000001</v>
       </c>
-      <c r="O157">
+      <c r="O157" s="3">
         <f t="shared" si="2"/>
-        <v>0.18181784833227871</v>
+        <v>4.524801782021846E-6</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
@@ -5469,9 +5470,9 @@
       <c r="L158" s="3">
         <v>10.9041</v>
       </c>
-      <c r="O158">
+      <c r="O158" s="3">
         <f t="shared" si="2"/>
-        <v>7.2057011507504739E-5</v>
+        <v>2.2798258213072522E-9</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -5499,9 +5500,9 @@
       <c r="L159" s="3">
         <v>13.8779</v>
       </c>
-      <c r="O159">
+      <c r="O159" s="3">
         <f t="shared" si="2"/>
-        <v>6.7253113819169829E-5</v>
+        <v>2.2698693009256527E-9</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
@@ -5529,9 +5530,9 @@
       <c r="L160" s="3">
         <v>14.869199999999999</v>
       </c>
-      <c r="O160">
+      <c r="O160" s="3">
         <f t="shared" si="2"/>
-        <v>6.3049714700040983E-5</v>
+        <v>2.2680417047508669E-9</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
@@ -5559,9 +5560,9 @@
       <c r="L161" s="3">
         <v>15.8605</v>
       </c>
-      <c r="O161">
+      <c r="O161" s="3">
         <f t="shared" si="2"/>
-        <v>7.759998758400199E-5</v>
+        <v>2.2750436808386721E-9</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
@@ -5589,9 +5590,9 @@
       <c r="L162" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O162">
+      <c r="O162" s="3">
         <f t="shared" si="2"/>
-        <v>1.0087977249593707E-4</v>
+        <v>2.2776345398722702E-9</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
@@ -5619,9 +5620,9 @@
       <c r="L163" s="3">
         <v>9.9127899999999993</v>
       </c>
-      <c r="O163">
+      <c r="O163" s="3">
         <f t="shared" si="2"/>
-        <v>1.0087987426332472E-4</v>
+        <v>2.2806577416927041E-9</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
@@ -5649,9 +5650,9 @@
       <c r="L164" s="3">
         <v>9.9127799999999997</v>
       </c>
-      <c r="O164">
+      <c r="O164" s="3">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>2.2660787030051984E-6</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
@@ -5679,9 +5680,9 @@
       <c r="L165" s="3">
         <v>9.9127799999999997</v>
       </c>
-      <c r="O165">
+      <c r="O165" s="3">
         <f t="shared" si="2"/>
-        <v>7.759998758400199E-5</v>
+        <v>2.2876332832341645E-9</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
@@ -5709,9 +5710,9 @@
       <c r="L166" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O166">
+      <c r="O166" s="3">
         <f t="shared" si="2"/>
-        <v>0.16666704029591436</v>
+        <v>6.8002240947600698E-6</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
@@ -5739,9 +5740,9 @@
       <c r="L167" s="3">
         <v>17.843</v>
       </c>
-      <c r="O167">
+      <c r="O167" s="3">
         <f t="shared" si="2"/>
-        <v>6.7253113819169829E-5</v>
+        <v>2.2875547869371471E-9</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
@@ -5769,9 +5770,9 @@
       <c r="L168" s="3">
         <v>14.869199999999999</v>
       </c>
-      <c r="O168">
+      <c r="O168" s="3">
         <f t="shared" si="2"/>
-        <v>5.8823620168885031E-2</v>
+        <v>2.2665864856954708E-6</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
@@ -5799,9 +5800,9 @@
       <c r="L169" s="3">
         <v>16.851700000000001</v>
       </c>
-      <c r="O169">
+      <c r="O169" s="3">
         <f t="shared" si="2"/>
-        <v>5.3094619922163289E-5</v>
+        <v>2.2884761495015699E-9</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
@@ -5829,9 +5830,9 @@
       <c r="L170" s="3">
         <v>18.834299999999999</v>
       </c>
-      <c r="O170">
+      <c r="O170" s="3">
         <f t="shared" si="2"/>
-        <v>1.0087977249593707E-4</v>
+        <v>2.2875809517709308E-9</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
@@ -5859,9 +5860,9 @@
       <c r="L171" s="3">
         <v>9.9127899999999993</v>
       </c>
-      <c r="O171">
+      <c r="O171" s="3">
         <f t="shared" si="2"/>
-        <v>1.0087967072875473E-4</v>
+        <v>2.2849569856847447E-9</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
@@ -5889,9 +5890,9 @@
       <c r="L172" s="3">
         <v>9.9128000000000007</v>
       </c>
-      <c r="O172">
+      <c r="O172" s="3">
         <f t="shared" si="2"/>
-        <v>2.0175974852664944E-4</v>
+        <v>2.2864825438490189E-9</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
@@ -5919,9 +5920,9 @@
       <c r="L173" s="3">
         <v>4.9563899999999999</v>
       </c>
-      <c r="O173">
+      <c r="O173" s="3">
         <f t="shared" si="2"/>
-        <v>4.8037892289437908E-5</v>
+        <v>2.2877798240697317E-9</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.3">
@@ -5949,9 +5950,9 @@
       <c r="L174" s="3">
         <v>20.8169</v>
       </c>
-      <c r="O174">
+      <c r="O174" s="3">
         <f t="shared" si="2"/>
-        <v>7.759998758400199E-5</v>
+        <v>2.2914914630485545E-9</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
@@ -5979,9 +5980,9 @@
       <c r="L175" s="3">
         <v>12.8866</v>
       </c>
-      <c r="O175">
+      <c r="O175" s="3">
         <f t="shared" si="2"/>
-        <v>7.2057011507504739E-5</v>
+        <v>2.2902896300266131E-9</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
@@ -6009,9 +6010,9 @@
       <c r="L176" s="3">
         <v>13.8779</v>
       </c>
-      <c r="O176">
+      <c r="O176" s="3">
         <f t="shared" si="2"/>
-        <v>7.2057011507504739E-5</v>
+        <v>2.2844610956275416E-9</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
@@ -6039,9 +6040,9 @@
       <c r="L177" s="3">
         <v>13.8779</v>
       </c>
-      <c r="O177">
+      <c r="O177" s="3">
         <f t="shared" si="2"/>
-        <v>0.11111101147675674</v>
+        <v>2.2671722727802921E-6</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
@@ -6066,7 +6067,7 @@
       <c r="L178" s="3">
         <v>8.9215099999999996</v>
       </c>
-      <c r="O178" t="e">
+      <c r="O178" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
